--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project398\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F7703-8EAB-43FC-BA65-191E15F9AB27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF7F21-4EEA-4B3A-9825-46AAC7455BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3876" yWindow="324" windowWidth="16656" windowHeight="11604" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -427,15 +439,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -448,19 +482,63 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,20 +645,438 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -854,7 +1350,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$25</c15:sqref>
@@ -881,7 +1377,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$26:$J$27</c15:sqref>
@@ -902,7 +1398,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$26:$I$27</c15:sqref>
@@ -921,7 +1417,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-5864-4568-9737-92C2575E6457}"/>
                   </c:ext>
@@ -934,7 +1430,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$25</c15:sqref>
@@ -961,7 +1457,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$26:$J$27</c15:sqref>
@@ -982,7 +1478,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$26:$J$27</c15:sqref>
@@ -1001,7 +1497,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5864-4568-9737-92C2575E6457}"/>
                   </c:ext>
@@ -1308,6 +1804,1273 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tilesize = 512, BlockSize = 32</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speedup (CPU timing /GPU timing) from </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1 stream to 3 streams </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for multi-threading(2 threads) using pinnedhost memory</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpeedUp (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.208014142604597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.987577639751553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.154239766081872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="672862640"/>
+        <c:axId val="672864936"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Streams</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Memory Allocation Time (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$3:$E$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.15970999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.17391999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15964</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Algorithm Execution Time (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.85851999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.80815999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.48197</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GPU's Total Latency (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1.0182</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.98209999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.6415999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU's Total Latency (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$3:$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672862640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Number of Streams</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672864936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672864936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Speedup (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672862640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1348,7 +3111,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1890,6 +4196,67 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1345405</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FBE912-E4E9-4380-8255-46667312CF75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59FA13A6-6557-44BE-8E96-1BF7AAAA5348}" name="Table1" displayName="Table1" ref="A2:I5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A2:I5" xr:uid="{E39EE2C3-B3C1-48FF-AA98-ADCC2BEEE9D5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7BD4E402-26E4-4DBE-BA02-DBE7CEAF9137}" name="Total Messages" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{75902C94-409D-41FA-9426-F43411351B04}" name="Block Size" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1DE3FA54-7DF1-4C1E-B5A9-5001062EE4E6}" name="Tile Size" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{CBBD9C72-2C3E-4582-8D4F-291256E81DD4}" name="Streams" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{BCCE3FED-2ECA-48FB-85EC-0491731384E2}" name="Memory Allocation Time (sec)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{48975898-696D-4B2E-933C-549EC9DE71EB}" name="Algorithm Execution Time (sec)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A415A2B4-9175-4B09-B05C-CC96F8BA823D}" name="GPU's Total Latency (sec)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{71E57FA5-C0FA-469D-AA06-A7B52E41ED2B}" name="CPU's Total Latency (sec)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C396F266-A20C-4FCE-A755-F3D1FACADE82}" name="SpeedUp (%)" dataDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> H3 /G3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2157,7 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C8:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="78" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="C14" zoomScale="78" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -2668,46 +5035,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7A5B0D-E5A6-40FC-8424-8F3610BF1550}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="36">
         <v>14341564</v>
       </c>
       <c r="B3" s="7">
@@ -2731,12 +5107,13 @@
       <c r="H3" s="10">
         <v>21.594000000000001</v>
       </c>
-      <c r="I3" s="10">
-        <v>21.21</v>
+      <c r="I3" s="37">
+        <f xml:space="preserve"> H3 /G3</f>
+        <v>21.208014142604597</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="36">
         <v>14341564</v>
       </c>
       <c r="B4" s="7">
@@ -2760,40 +5137,47 @@
       <c r="H4" s="10">
         <v>21.594000000000001</v>
       </c>
-      <c r="I4" s="10">
-        <v>21.99</v>
+      <c r="I4" s="37">
+        <f t="shared" ref="I4:I5" si="0" xml:space="preserve"> H4 /G4</f>
+        <v>21.987577639751553</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
         <v>14341564</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="43">
         <v>32</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="44">
         <v>512</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="45">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="46">
         <v>0.15964</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="46">
         <v>1.48197</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="47">
         <v>1.6415999999999999</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="46">
         <v>21.594000000000001</v>
       </c>
-      <c r="I5" s="10">
-        <v>13.15</v>
+      <c r="I5" s="48">
+        <f t="shared" si="0"/>
+        <v>13.154239766081872</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project398\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF7F21-4EEA-4B3A-9825-46AAC7455BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EC016-B516-421E-A13D-BF3084A131F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3876" yWindow="324" windowWidth="16656" windowHeight="11604" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>CPU Vs GPU Dictionary Approach</t>
   </si>
@@ -71,9 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -534,11 +531,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -648,9 +716,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -669,26 +734,215 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -744,7 +998,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -913,123 +1166,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color rgb="FF0000FF"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1063,6 +1204,29 @@
     <dxf>
       <border outline="0">
         <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
           <color rgb="FF000000"/>
         </left>
         <right style="medium">
@@ -1075,6 +1239,32 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1858,7 +2048,7 @@
               <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>1 stream to 3 streams </a:t>
+              <a:t>1 stream to 4 streams </a:t>
             </a:r>
             <a:endParaRPr lang="en-SG" sz="1100">
               <a:effectLst/>
@@ -1941,76 +2131,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:f>Sheet2!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2018,18 +2157,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$5</c:f>
+              <c:f>Sheet2!$I$3:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.208014142604597</c:v>
+                  <c:v>20.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.987577639751553</c:v>
+                  <c:v>21.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.154239766081872</c:v>
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,82 +2229,31 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2173,20 +2264,23 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2205,7 +2299,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$E$2</c15:sqref>
@@ -2231,82 +2325,31 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2314,29 +2357,32 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$E$3:$E$5</c15:sqref>
+                          <c15:sqref>Sheet2!$E$3:$E$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>0.21998999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0.15970999999999999</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>0.17391999999999999</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>0.15964</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
                   </c:ext>
@@ -2349,7 +2395,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$F$2</c15:sqref>
@@ -2375,82 +2421,31 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2458,29 +2453,32 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$F$3:$F$5</c15:sqref>
+                          <c15:sqref>Sheet2!$F$3:$F$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>0.81957000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0.85851999999999995</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>0.80815999999999999</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1.48197</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
                   </c:ext>
@@ -2493,7 +2491,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$G$2</c15:sqref>
@@ -2519,82 +2517,31 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2602,29 +2549,32 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$G$3:$G$5</c15:sqref>
+                          <c15:sqref>Sheet2!$G$3:$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>1.0396000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>1.0182</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>0.98209999999999997</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1.6415999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
                   </c:ext>
@@ -2637,7 +2587,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$2</c15:sqref>
@@ -2663,82 +2613,31 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$3:$D$5</c15:sqref>
+                          <c15:sqref>Sheet2!$D$3:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2746,16 +2645,16 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$H$3:$H$5</c15:sqref>
+                          <c15:sqref>Sheet2!$H$3:$H$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>21.594000000000001</c:v>
                       </c:pt>
@@ -2763,12 +2662,15 @@
                         <c:v>21.594000000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
                         <c:v>21.594000000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D6C7-47C3-B31D-98A5A2D2C4DB}"/>
                   </c:ext>
@@ -2960,7 +2862,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3036,6 +2938,1284 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>BlockSize = 32, Streams = 2</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speedup (CPU timing /GPU timing) from tileSize = 128 to tileSize = 512</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for multi-threading(2 threads) using pinnedhost memory</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpeedUp (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$34:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8760-4F30-B676-FEEBDFE011A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="687973072"/>
+        <c:axId val="687972744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tile Size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8760-4F30-B676-FEEBDFE011A6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Memory Allocation Time (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$34:$E$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.17391999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.12686</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.11763999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8760-4F30-B676-FEEBDFE011A6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$F$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Algorithm Execution Time (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$F$34:$F$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.80815999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.86153000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.82469000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8760-4F30-B676-FEEBDFE011A6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GPU's Total Latency (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$34:$G$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.98209999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.98839999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.94230000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8760-4F30-B676-FEEBDFE011A6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU's Total Latency (sec)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$34:$D$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$34:$H$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21.594000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8760-4F30-B676-FEEBDFE011A6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="687973072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Tile</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687972744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687972744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687973072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3151,6 +4331,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3655,6 +4875,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4202,16 +5925,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1345405</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297655</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4236,26 +5959,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327420</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACF4E47-9D5C-4EF6-BC34-8D45FAC78E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59FA13A6-6557-44BE-8E96-1BF7AAAA5348}" name="Table1" displayName="Table1" ref="A2:I5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A2:I5" xr:uid="{E39EE2C3-B3C1-48FF-AA98-ADCC2BEEE9D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59FA13A6-6557-44BE-8E96-1BF7AAAA5348}" name="Table1" displayName="Table1" ref="A2:I6" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:I6" xr:uid="{E39EE2C3-B3C1-48FF-AA98-ADCC2BEEE9D5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BD4E402-26E4-4DBE-BA02-DBE7CEAF9137}" name="Total Messages" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{75902C94-409D-41FA-9426-F43411351B04}" name="Block Size" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1DE3FA54-7DF1-4C1E-B5A9-5001062EE4E6}" name="Tile Size" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{CBBD9C72-2C3E-4582-8D4F-291256E81DD4}" name="Streams" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{BCCE3FED-2ECA-48FB-85EC-0491731384E2}" name="Memory Allocation Time (sec)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{48975898-696D-4B2E-933C-549EC9DE71EB}" name="Algorithm Execution Time (sec)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A415A2B4-9175-4B09-B05C-CC96F8BA823D}" name="GPU's Total Latency (sec)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{71E57FA5-C0FA-469D-AA06-A7B52E41ED2B}" name="CPU's Total Latency (sec)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{C396F266-A20C-4FCE-A755-F3D1FACADE82}" name="SpeedUp (%)" dataDxfId="2">
-      <calculatedColumnFormula xml:space="preserve"> H3 /G3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{7BD4E402-26E4-4DBE-BA02-DBE7CEAF9137}" name="Total Messages"/>
+    <tableColumn id="2" xr3:uid="{75902C94-409D-41FA-9426-F43411351B04}" name="Block Size"/>
+    <tableColumn id="3" xr3:uid="{1DE3FA54-7DF1-4C1E-B5A9-5001062EE4E6}" name="Tile Size"/>
+    <tableColumn id="4" xr3:uid="{CBBD9C72-2C3E-4582-8D4F-291256E81DD4}" name="Streams"/>
+    <tableColumn id="5" xr3:uid="{BCCE3FED-2ECA-48FB-85EC-0491731384E2}" name="Memory Allocation Time (sec)"/>
+    <tableColumn id="6" xr3:uid="{48975898-696D-4B2E-933C-549EC9DE71EB}" name="Algorithm Execution Time (sec)"/>
+    <tableColumn id="7" xr3:uid="{A415A2B4-9175-4B09-B05C-CC96F8BA823D}" name="GPU's Total Latency (sec)"/>
+    <tableColumn id="8" xr3:uid="{71E57FA5-C0FA-469D-AA06-A7B52E41ED2B}" name="CPU's Total Latency (sec)"/>
+    <tableColumn id="9" xr3:uid="{C396F266-A20C-4FCE-A755-F3D1FACADE82}" name="SpeedUp (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0990722-4561-4EFB-92BB-86C09242C3C3}" name="Table2" displayName="Table2" ref="D33:I36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="D33:I36" xr:uid="{4030709E-D452-44EC-9914-CC1041170FD9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EEC3DE86-80BF-46FC-B171-489CB39B367F}" name="Tile Size" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{67E9969E-17EC-4CDC-8D25-B9B34FC72679}" name="Memory Allocation Time (sec)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{037C8F11-FCB9-44E0-9A78-0438356ECAEB}" name="Algorithm Execution Time (sec)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E676953E-C2AA-482C-BA20-FA5702457D2F}" name="GPU's Total Latency (sec)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{451FF6FB-F45C-42E9-8139-57054C8F1061}" name="CPU's Total Latency (sec)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F0EEA3B9-76B3-43D2-B474-90208E3188F6}" name="SpeedUp (%)" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB9261BA-9BC7-4C65-B5BE-7B74F37F5E0D}" name="Table4" displayName="Table4" ref="A33:C36" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A33:C36" xr:uid="{A2CAF179-D59D-4CAD-BF32-B50EDF121D77}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3AF4CC36-08CB-4106-907D-AFF5F3AE2E93}" name="Total Messages" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{67AA4045-9ADB-4205-BAD3-C76B69614D4F}" name="Block Size" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{248FE394-40A0-419C-9D5C-33B3381B6054}" name="Streams" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5035,85 +6819,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7A5B0D-E5A6-40FC-8424-8F3610BF1550}">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+      <c r="A3" s="45">
         <v>14341564</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="46">
         <v>32</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="47">
         <v>512</v>
       </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.15970999999999999</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.85851999999999995</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1.0182</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="D3" s="48">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.21998999999999999</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0.81957000000000002</v>
+      </c>
+      <c r="G3" s="51">
+        <v>1.0396000000000001</v>
+      </c>
+      <c r="H3" s="50">
         <v>21.594000000000001</v>
       </c>
-      <c r="I3" s="37">
-        <f xml:space="preserve"> H3 /G3</f>
-        <v>21.208014142604597</v>
+      <c r="I3" s="50">
+        <v>20.77</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36">
+      <c r="A4" s="6">
         <v>14341564</v>
       </c>
       <c r="B4" s="7">
@@ -5123,61 +6907,206 @@
         <v>512</v>
       </c>
       <c r="D4" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="10">
-        <v>0.17391999999999999</v>
+        <v>0.15970999999999999</v>
       </c>
       <c r="F4" s="10">
-        <v>0.80815999999999999</v>
+        <v>0.85851999999999995</v>
       </c>
       <c r="G4" s="11">
-        <v>0.98209999999999997</v>
+        <v>1.0182</v>
       </c>
       <c r="H4" s="10">
         <v>21.594000000000001</v>
       </c>
-      <c r="I4" s="37">
-        <f t="shared" ref="I4:I5" si="0" xml:space="preserve"> H4 /G4</f>
-        <v>21.987577639751553</v>
+      <c r="I4" s="10">
+        <v>21.21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>14341564</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="7">
         <v>32</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="8">
         <v>512</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.17391999999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.80815999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="H5" s="10">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="52">
+        <v>14341564</v>
+      </c>
+      <c r="B6" s="53">
+        <v>32</v>
+      </c>
+      <c r="C6" s="54">
+        <v>512</v>
+      </c>
+      <c r="D6" s="55">
         <v>1</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E6" s="56">
         <v>0.15964</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F6" s="56">
         <v>1.48197</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G6" s="57">
         <v>1.6415999999999999</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H6" s="56">
         <v>21.594000000000001</v>
       </c>
-      <c r="I5" s="48">
-        <f t="shared" si="0"/>
-        <v>13.154239766081872</v>
+      <c r="I6" s="56">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="36">
+        <v>14341564</v>
+      </c>
+      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="62">
+        <v>2</v>
+      </c>
+      <c r="D34" s="58">
+        <v>512</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.17391999999999999</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.80815999999999999</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="H34" s="10">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="I34" s="59">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="36">
+        <v>14341564</v>
+      </c>
+      <c r="B35" s="7">
+        <v>32</v>
+      </c>
+      <c r="C35" s="62">
+        <v>2</v>
+      </c>
+      <c r="D35" s="58">
+        <v>256</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.12686</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.86153000000000002</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="H35" s="10">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="I35" s="59">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="41">
+        <v>14341564</v>
+      </c>
+      <c r="B36" s="42">
+        <v>32</v>
+      </c>
+      <c r="C36" s="64">
+        <v>2</v>
+      </c>
+      <c r="D36" s="60">
+        <v>128</v>
+      </c>
+      <c r="E36" s="43">
+        <v>0.11763999999999999</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0.82469000000000003</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="H36" s="43">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="I36" s="61">
+        <v>22.92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>